--- a/public/import/WEEKLY WAHYU.xlsx
+++ b/public/import/WEEKLY WAHYU.xlsx
@@ -57,7 +57,7 @@
     <t>PENGIRIMAN ORDERAN AREA KOTA CIREBON CLEAR TARGET 1 HARI 12 PENGIRIMAN</t>
   </si>
   <si>
-    <t>38</t>
+    <t>39</t>
   </si>
 </sst>
 </file>
@@ -408,7 +408,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
